--- a/Readings.xlsx
+++ b/Readings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reenanagrale\Desktop\BITS-Pilani\Courses\Semister 1\COSS\Assignments\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B041C32C-A893-4A7E-B3D9-6E756C4CB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311C5776-3772-4F16-A63A-158560BA30B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A4B89BC-2264-44EB-828C-F88B45E3748C}"/>
   </bookViews>
@@ -282,7 +282,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -295,14 +295,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1100"/>
-              <a:t>Elapsed</a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>Elapsed Time for Each Process in secs</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" baseline="0"/>
-              <a:t> Time for Each Process in secs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -327,7 +322,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -374,6 +369,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$2:$L$2</c:f>
@@ -445,6 +497,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$2:$L$2</c:f>
@@ -516,6 +625,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$2:$L$2</c:f>
@@ -564,15 +730,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="524050184"/>
         <c:axId val="524049528"/>
       </c:barChart>
@@ -583,6 +750,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -605,7 +786,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -632,53 +813,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="524050184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -692,7 +832,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -735,7 +875,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -787,7 +927,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -801,13 +941,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Average</a:t>
+              <a:t>Average Process Waiting Time in secs</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Process Waiting Time in secs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -824,7 +959,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -871,6 +1006,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$8:$L$8</c:f>
@@ -942,6 +1134,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$8:$L$8</c:f>
@@ -1013,6 +1262,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$8:$L$8</c:f>
@@ -1061,15 +1367,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="607970680"/>
         <c:axId val="607968056"/>
       </c:barChart>
@@ -1080,6 +1387,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1102,7 +1423,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1129,53 +1450,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="607970680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1189,7 +1469,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,7 +1512,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1284,7 +1564,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1298,13 +1578,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Average</a:t>
+              <a:t>Average Burst Period</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Burst Period</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1321,7 +1596,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1368,6 +1643,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$15:$L$15</c:f>
@@ -1439,6 +1771,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$15:$L$15</c:f>
@@ -1510,6 +1899,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$15:$L$15</c:f>
@@ -1558,15 +2004,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="528922840"/>
         <c:axId val="528927760"/>
       </c:barChart>
@@ -1577,6 +2024,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1599,7 +2060,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1626,53 +2087,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="528922840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1686,7 +2106,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1729,7 +2149,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1881,7 +2301,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1892,7 +2312,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1915,18 +2335,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1938,7 +2358,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1946,11 +2366,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1982,35 +2405,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2022,30 +2455,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2067,15 +2504,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2090,10 +2525,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2101,67 +2572,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2174,54 +2706,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2231,8 +2726,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2242,66 +2737,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2310,14 +2746,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2331,7 +2767,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2347,8 +2783,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2364,6 +2800,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2371,20 +2818,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2395,7 +2836,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2418,18 +2859,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2441,7 +2882,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2449,11 +2890,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2485,35 +2929,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2525,30 +2979,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2570,15 +3028,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2593,10 +3049,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2604,67 +3096,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2677,54 +3230,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2734,8 +3250,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2745,66 +3261,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2813,14 +3270,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2834,7 +3291,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2850,8 +3307,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2867,6 +3324,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2874,20 +3342,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2898,7 +3360,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2921,18 +3383,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2944,7 +3406,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2952,11 +3414,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2988,35 +3453,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3028,30 +3503,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3073,15 +3552,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3096,10 +3573,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3107,67 +3620,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3180,54 +3754,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3237,8 +3774,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3248,66 +3785,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3316,14 +3794,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3337,7 +3815,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3353,8 +3831,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3370,6 +3848,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3377,14 +3866,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3801,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A5F4A-C7AB-4EE0-BCF0-0BCDC0FA4B3B}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
